--- a/data/trans_camb/P6903-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6903-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,85</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,63</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 36,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,08; 53,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,73; 36,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 89,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,1; 59,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 40,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 40,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 32,96</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>203,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>352,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>262,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>259,7%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; 13,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 25,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,93; 24,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,54; 14,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,7; 26,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,11; 20,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,63; 9,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; 20,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 18,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,2%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,69; 59,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,72; 117,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,07; 102,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,99; 51,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,1; 86,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,34; 77,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,77; 38,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,38; 76,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,57; 66,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,73; 3,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; 14,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 18,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 30,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,71; 40,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 31,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,65; 6,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 18,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 19,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,41; 14,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,2; 55,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,18; 63,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; 205,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,5; 283,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,95; 224,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,75; 25,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 72,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 77,48</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 16,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 27,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 31,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,55; 13,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 29,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,95; 21,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; 10,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,89; 25,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 22,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,34%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,55; 83,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,34; 150,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 159,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,01; 60,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; 140,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,39; 97,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,51; 49,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,42; 119,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,97; 101,15</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,1; -6,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 19,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; 7,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; 20,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,88; 19,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,89; 30,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,51; 1,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; 14,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 14,36</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,48; -17,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; 59,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,61; 24,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,59; 77,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,86; 74,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,36; 122,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,53; 3,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,56; 45,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,49; 44,41</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; -1,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 14,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 11,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 13,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 20,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 20,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 2,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 14,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 12,87</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,46%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,26; -4,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 51,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,79; 41,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 51,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,88; 78,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 75,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,26; 10,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 49,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 44,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,05</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,75</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,85</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,79</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>5,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 36,04</t>
+          <t>-14,99; 13,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 53,98</t>
+          <t>-7,41; 26,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 36,29</t>
+          <t>-11,75; 21,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,35</t>
+          <t>-22,43; 24,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,15</t>
+          <t>-23,9; 25,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 59,46</t>
+          <t>-17,81; 22,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 40,99</t>
+          <t>-11,91; 12,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 40,48</t>
+          <t>-8,46; 19,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 32,96</t>
+          <t>-6,55; 19,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>154,13%</t>
+          <t>-4,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>203,21%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>352,24%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>262,48%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>259,7%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,43; 77,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,29; 145,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,89; 113,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,89; 114,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,22; 106,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,98; 103,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,4; 61,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,58; 85,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,42; 98,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>22,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>17,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>8,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 13,18</t>
+          <t>-21,73; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 25,02</t>
+          <t>-11,41; 14,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 24,05</t>
+          <t>-8,96; 18,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 14,97</t>
+          <t>-5,3; 30,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 26,61</t>
+          <t>5,71; 40,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 20,56</t>
+          <t>1,72; 30,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 9,77</t>
+          <t>-12,65; 6,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 20,64</t>
+          <t>-2,58; 18,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 18,41</t>
+          <t>-0,71; 18,22</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,5%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>-7,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>28,05%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 59,44</t>
+          <t>-57,41; 14,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 117,49</t>
+          <t>-31,2; 55,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 102,13</t>
+          <t>-24,19; 63,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 51,65</t>
+          <t>-19,5; 205,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,1; 86,29</t>
+          <t>13,5; 283,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 77,29</t>
+          <t>3,17; 215,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 38,0</t>
+          <t>-36,75; 25,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 76,64</t>
+          <t>-7,96; 72,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 66,28</t>
+          <t>-2,03; 75,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>15,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,21</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,67</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>4,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 3,56</t>
+          <t>-10,6; 16,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 14,71</t>
+          <t>1,91; 27,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 18,1</t>
+          <t>-1,95; 29,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 30,14</t>
+          <t>-21,55; 13,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 40,03</t>
+          <t>-5,27; 29,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 31,48</t>
+          <t>-31,61; 16,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 6,96</t>
+          <t>-10,79; 10,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 18,28</t>
+          <t>3,89; 25,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 19,04</t>
+          <t>-17,97; 17,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,41; 14,76</t>
+          <t>-35,55; 83,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 55,05</t>
+          <t>5,34; 150,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 63,97</t>
+          <t>-7,37; 149,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 205,89</t>
+          <t>-53,01; 60,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,5; 283,23</t>
+          <t>-11,7; 140,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,95; 224,22</t>
+          <t>-68,89; 56,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 25,38</t>
+          <t>-33,51; 49,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 72,59</t>
+          <t>11,42; 119,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 77,48</t>
+          <t>-53,1; 72,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>-18,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,77</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>15,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 16,3</t>
+          <t>-31,1; -6,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 27,97</t>
+          <t>-6,77; 19,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 31,42</t>
+          <t>-19,92; 6,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 13,31</t>
+          <t>-12,38; 20,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 29,79</t>
+          <t>-13,88; 19,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 21,93</t>
+          <t>2,19; 28,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 10,94</t>
+          <t>-18,51; 1,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 25,57</t>
+          <t>-6,15; 14,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 22,93</t>
+          <t>-5,66; 12,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>-49,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>-19,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>-23,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 83,53</t>
+          <t>-71,48; -17,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,34; 150,94</t>
+          <t>-17,68; 59,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 159,66</t>
+          <t>-45,63; 19,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 60,8</t>
+          <t>-30,59; 77,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 140,31</t>
+          <t>-33,86; 74,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 97,0</t>
+          <t>4,89; 117,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 49,3</t>
+          <t>-47,53; 3,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,42; 119,0</t>
+          <t>-14,56; 45,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 101,15</t>
+          <t>-13,87; 39,16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-18,72</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,16</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -6,76</t>
+          <t>-14,03; -1,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 19,58</t>
+          <t>-0,54; 14,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 7,63</t>
+          <t>-3,93; 10,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 20,48</t>
+          <t>-5,18; 13,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 19,69</t>
+          <t>2,29; 20,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,89; 30,5</t>
+          <t>-3,83; 16,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 1,05</t>
+          <t>-8,02; 2,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 14,76</t>
+          <t>2,87; 14,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 14,36</t>
+          <t>-2,08; 10,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-49,24%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-23,15%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>17,13%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,48; -17,1</t>
+          <t>-41,26; -4,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 59,4</t>
+          <t>-0,78; 51,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 24,56</t>
+          <t>-11,42; 37,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 77,15</t>
+          <t>-14,61; 51,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 74,09</t>
+          <t>5,88; 78,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,36; 122,12</t>
+          <t>-9,97; 62,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 3,02</t>
+          <t>-24,26; 10,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 45,77</t>
+          <t>7,59; 49,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 44,41</t>
+          <t>-6,1; 36,57</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-7,77</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>10,76</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-3,18</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>8,54</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-14,03; -1,01</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 14,48</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 11,49</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 13,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 20,53</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 20,0</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 2,76</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 14,49</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 12,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-24,58%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>22,95%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>11,5%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>12,71%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>34,95%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>38,6%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-10,15%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>27,25%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>24,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-41,26; -4,26</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 51,56</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 41,65</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-14,61; 51,28</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 78,05</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 75,35</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-24,26; 10,46</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 49,2</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 44,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6903-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 13,96</t>
+          <t>-14,54; 13,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 26,63</t>
+          <t>-8,05; 25,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 21,27</t>
+          <t>-10,44; 22,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 24,55</t>
+          <t>-22,76; 26,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 25,05</t>
+          <t>-23,82; 23,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 22,74</t>
+          <t>-16,09; 22,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 12,95</t>
+          <t>-12,9; 11,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 19,75</t>
+          <t>-6,74; 20,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 19,73</t>
+          <t>-7,41; 17,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 77,79</t>
+          <t>-45,97; 72,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 145,39</t>
+          <t>-25,36; 139,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 113,29</t>
+          <t>-34,0; 131,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,89; 114,02</t>
+          <t>-50,04; 110,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 106,12</t>
+          <t>-53,34; 94,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 103,43</t>
+          <t>-34,0; 97,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 61,05</t>
+          <t>-37,66; 46,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 85,95</t>
+          <t>-20,05; 92,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 98,22</t>
+          <t>-21,69; 75,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 3,56</t>
+          <t>-21,44; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 14,71</t>
+          <t>-11,97; 15,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 18,0</t>
+          <t>-8,1; 18,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 30,14</t>
+          <t>-4,44; 30,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 40,03</t>
+          <t>2,67; 39,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 30,49</t>
+          <t>2,45; 31,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 6,96</t>
+          <t>-11,71; 7,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 18,28</t>
+          <t>-3,07; 17,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 18,22</t>
+          <t>-1,19; 18,29</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,41; 14,76</t>
+          <t>-57,77; 8,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 55,05</t>
+          <t>-31,62; 54,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 63,4</t>
+          <t>-22,09; 64,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 205,89</t>
+          <t>-16,39; 225,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 283,23</t>
+          <t>6,44; 269,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 215,47</t>
+          <t>5,71; 245,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 25,38</t>
+          <t>-34,61; 30,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 72,59</t>
+          <t>-9,02; 69,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 75,2</t>
+          <t>-3,37; 72,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 16,3</t>
+          <t>-10,98; 16,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 27,97</t>
+          <t>2,4; 28,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 29,7</t>
+          <t>-1,37; 30,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 13,31</t>
+          <t>-22,69; 13,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 29,79</t>
+          <t>-5,42; 29,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 16,33</t>
+          <t>-30,73; 17,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 10,94</t>
+          <t>-9,82; 11,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 25,57</t>
+          <t>4,14; 25,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 17,61</t>
+          <t>-16,91; 18,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 83,53</t>
+          <t>-35,14; 87,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 150,94</t>
+          <t>7,82; 151,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 149,17</t>
+          <t>-7,24; 154,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 60,8</t>
+          <t>-55,42; 64,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 140,31</t>
+          <t>-12,63; 138,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 56,43</t>
+          <t>-69,93; 64,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 49,3</t>
+          <t>-30,72; 48,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 119,0</t>
+          <t>12,88; 112,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 72,6</t>
+          <t>-46,7; 74,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -6,76</t>
+          <t>-32,01; -6,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 19,58</t>
+          <t>-7,92; 19,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 6,48</t>
+          <t>-19,64; 6,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 20,48</t>
+          <t>-10,9; 21,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 19,69</t>
+          <t>-11,2; 22,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 28,9</t>
+          <t>1,29; 29,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 1,05</t>
+          <t>-17,95; 1,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 14,76</t>
+          <t>-4,3; 14,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 12,14</t>
+          <t>-6,23; 12,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,48; -17,1</t>
+          <t>-72,67; -19,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 59,4</t>
+          <t>-18,8; 58,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 19,47</t>
+          <t>-45,96; 22,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 77,15</t>
+          <t>-28,6; 81,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 74,09</t>
+          <t>-29,07; 86,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 117,11</t>
+          <t>2,9; 117,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 3,02</t>
+          <t>-45,71; 5,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 45,77</t>
+          <t>-11,55; 46,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 39,16</t>
+          <t>-15,09; 39,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,01</t>
+          <t>-14,13; -1,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,48</t>
+          <t>0,2; 14,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,64</t>
+          <t>-4,73; 10,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,04</t>
+          <t>-5,4; 12,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,53</t>
+          <t>2,1; 19,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 16,43</t>
+          <t>-4,25; 17,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,76</t>
+          <t>-8,19; 1,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,49</t>
+          <t>3,17; 14,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 10,77</t>
+          <t>-1,51; 10,88</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -4,26</t>
+          <t>-40,79; -4,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 51,56</t>
+          <t>0,38; 50,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 37,69</t>
+          <t>-14,09; 35,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 51,28</t>
+          <t>-15,47; 48,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,88; 78,05</t>
+          <t>6,26; 78,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 62,28</t>
+          <t>-10,7; 64,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 10,46</t>
+          <t>-24,12; 6,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,59; 49,2</t>
+          <t>9,51; 50,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 36,57</t>
+          <t>-4,53; 36,91</t>
         </is>
       </c>
     </row>
